--- a/testcases/Websolor Test cases.xlsx
+++ b/testcases/Websolor Test cases.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>TestCase Id.</t>
   </si>
@@ -304,6 +305,9 @@
   </si>
   <si>
     <t>T019</t>
+  </si>
+  <si>
+    <t>Hai team ERP</t>
   </si>
 </sst>
 </file>
@@ -791,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -801,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1239,4 +1243,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>